--- a/result/版本6结果记录与备注.xlsx
+++ b/result/版本6结果记录与备注.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="版本6" sheetId="1" r:id="rId1"/>
+    <sheet name="版本5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="122">
+  <si>
+    <t>版本6</t>
+  </si>
   <si>
     <t>数据</t>
   </si>
@@ -63,6 +67,333 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>20180430-8-16</t>
+  </si>
+  <si>
+    <t>墨卡托</t>
+  </si>
+  <si>
+    <t>自适应（20000包围盒）</t>
+  </si>
+  <si>
+    <t>欧式距离</t>
+  </si>
+  <si>
+    <t>0m3s</t>
+  </si>
+  <si>
+    <t>调用incdbscan才计算参数</t>
+  </si>
+  <si>
+    <t>20180401-0407</t>
+  </si>
+  <si>
+    <t>0m38s</t>
+  </si>
+  <si>
+    <t>changjiang(0.4°x0.6°)</t>
+  </si>
+  <si>
+    <t>自适应（10000包围盒）</t>
+  </si>
+  <si>
+    <t>3m54s</t>
+  </si>
+  <si>
+    <t>20180430-8-16-2°x2°</t>
+  </si>
+  <si>
+    <t>0s</t>
+  </si>
+  <si>
+    <t>new20180430_08_16_4x4</t>
+  </si>
+  <si>
+    <t>0m1s</t>
+  </si>
+  <si>
+    <t>20180430-8-16(5°x7°)</t>
+  </si>
+  <si>
+    <t>0m4s</t>
+  </si>
+  <si>
+    <t>20180401_0407_2x2</t>
+  </si>
+  <si>
+    <t>0m36s</t>
+  </si>
+  <si>
+    <t>0m6s</t>
+  </si>
+  <si>
+    <t>固定参数</t>
+  </si>
+  <si>
+    <t>new20180401_0407_utm51n_2x2</t>
+  </si>
+  <si>
+    <t>0m5s</t>
+  </si>
+  <si>
+    <t>changjiang</t>
+  </si>
+  <si>
+    <t>3m51s</t>
+  </si>
+  <si>
+    <t>3m53s</t>
+  </si>
+  <si>
+    <t>调用incdbscan才计算参数且把固定时间遍历所有点检查超过固定时间没有出现的船的时间间隔由100000降低到10000</t>
+  </si>
+  <si>
+    <t>new20180430_08_16_utm51n</t>
+  </si>
+  <si>
+    <t>经纬度</t>
+  </si>
+  <si>
+    <t>0m2s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\jwd_ec_6_new20180430_08_16_utm51nmin10env10000.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haversine </t>
+  </si>
+  <si>
+    <t>new20180401_0407_clean</t>
+  </si>
+  <si>
+    <t>0m37s</t>
+  </si>
+  <si>
+    <t>0m49s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\jwd_ec_6_new20180401_0407_cleanmin10env10000.csv</t>
+  </si>
+  <si>
+    <t>最新版本</t>
+  </si>
+  <si>
+    <t>自适应（0.05包围盒）</t>
+  </si>
+  <si>
+    <t>0m29s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\jwd_ec_old_new20180401_0407_cleanmin10eps10000.csv</t>
+  </si>
+  <si>
+    <t>最开始的版本</t>
+  </si>
+  <si>
+    <t>0m30s</t>
+  </si>
+  <si>
+    <t>6s</t>
+  </si>
+  <si>
+    <t>29s</t>
+  </si>
+  <si>
+    <t>28s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\jwd_ec_new20180401_0407min10eps20000.csv</t>
+  </si>
+  <si>
+    <t>new20180430-8-16</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\ec_dbscan1new20180430_08_16min4eps10000.csv</t>
+  </si>
+  <si>
+    <t>new20180430_08_16_2x2</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\jwd_ec_new20180430_08_16_2x2min4eps10000.csv</t>
+  </si>
+  <si>
+    <t>30s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\jwd_ec_oldnew20180401_0407_cleanmin4eps10000.csv</t>
+  </si>
+  <si>
+    <t>new20180401_0407_clean_2x2</t>
+  </si>
+  <si>
+    <t>8s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407jwd_ec_old_new20180401_0407_clean_2x2min4eps10000.csv</t>
+  </si>
+  <si>
+    <t>new20180401_0407_clean_4x4</t>
+  </si>
+  <si>
+    <t>12s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\jwd_ec_old_new20180401_0407_clean_4x4_min4eps10000.csv</t>
+  </si>
+  <si>
+    <t>new20180401_0407_UTM51N</t>
+  </si>
+  <si>
+    <t>UTM51N墨卡托</t>
+  </si>
+  <si>
+    <t>38s</t>
+  </si>
+  <si>
+    <t>自适应（50000包围盒）</t>
+  </si>
+  <si>
+    <t>自适应（0.01°包围盒）</t>
+  </si>
+  <si>
+    <t>自适应（0.05°包围盒）</t>
+  </si>
+  <si>
+    <t>42s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\jwd_hv_hv_6_new20180401_0407_UTM51Nmin4env0.05.csv</t>
+  </si>
+  <si>
+    <t>41s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\jwd_hv_hv_6_new20180401_0407_UTM51Nmin4env0.01.csv</t>
+  </si>
+  <si>
+    <t>自适应（0.1°包围盒）</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\jwd_hv_hv_6_new20180401_0407_UTM51Nmin4env0.1.csv</t>
+  </si>
+  <si>
+    <t>19m</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\utm_hv_hv_6_new20180401_0407_UTM51Nmin4env10000.csv</t>
+  </si>
+  <si>
+    <t>自适应（1000包围盒）</t>
+  </si>
+  <si>
+    <t>以上结果截至2024.3.20</t>
+  </si>
+  <si>
+    <t>3s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\utm_ec_ec_6_new20180430_08_16_utm51nmin4env10000.csv</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\utm_ec_ec_6_new20180430_08_16_utm51nmin4env50000.csv</t>
+  </si>
+  <si>
+    <t>Web墨卡托</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\utm_ec_ec_6_new20180401_0407_clean51nmin4env10000.csv</t>
+  </si>
+  <si>
+    <t>44s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\utm_ec_ec_6_new20180401_0407_UTM51Nmin4env5000.csv</t>
+  </si>
+  <si>
+    <t>431s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\utm_ec_ec_6_new20180401_0407_cleanmin10env10000.csv</t>
+  </si>
+  <si>
+    <t>版本5</t>
+  </si>
+  <si>
+    <t>自适应（0.02包围盒）</t>
+  </si>
+  <si>
+    <t>50m9s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\hv_dbscan1new20180430_08_16min4epszsy.csv</t>
+  </si>
+  <si>
+    <t>读入点则计算参数</t>
+  </si>
+  <si>
+    <t>0m13s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\hv_dbscan1new20180430_08_16min4.csv</t>
+  </si>
+  <si>
+    <t>自适应（1500包围盒）</t>
+  </si>
+  <si>
+    <t>0m19</t>
+  </si>
+  <si>
+    <t>自适应（2000包围盒）</t>
+  </si>
+  <si>
+    <t>0m21</t>
+  </si>
+  <si>
+    <t>18m43s</t>
+  </si>
+  <si>
+    <t>50m37s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\ec_dbscan1new20180430_08_16min4env0.02.csv</t>
+  </si>
+  <si>
+    <t>18m41s</t>
+  </si>
+  <si>
+    <t>1m34s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\hv_hv_DBSCANpro20180401_0407_min4env1500.csv</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\wgs_hv_hv_DBSCANpro20180401_0407_min4env0.05.csv</t>
+  </si>
+  <si>
+    <t>自适应（0.1包围盒）</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\wgs_hv_hv_DBSCANpro20180401_0407_min4env0.1.csv</t>
+  </si>
+  <si>
+    <t>自适应（0.01包围盒）</t>
+  </si>
+  <si>
+    <t>自适应（15000包围盒）</t>
+  </si>
+  <si>
+    <t>0m15s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\mkt_hv_hv_DBSCANpro201830-08-16_min4env10000.csv</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\ec_dbscan1new20180430_08_16min4eps30000.csv</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\ec_dbscan1new20180430_08_16min4eps20000.csv</t>
   </si>
 </sst>
 </file>
@@ -75,10 +406,52 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -228,12 +601,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -548,142 +927,181 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -996,129 +1414,3350 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15.75" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="53.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.75" customWidth="1"/>
+    <col min="1" max="1" width="30.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="3" customWidth="1"/>
+    <col min="6" max="7" width="15.75" style="3" customWidth="1"/>
+    <col min="8" max="9" width="7.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="36.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.75" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="35.25" spans="1:12">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56"/>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4183696</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
+        <v>26765</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:12">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5">
+        <v>72396</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:12">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5">
+        <v>150089</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:12">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5">
+        <v>338200</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" s="7" customFormat="1" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9">
+        <v>338200</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="9">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9">
+        <v>100000</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" spans="1:12">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9">
+        <v>338200</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="9">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9">
+        <v>338200</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="9">
+        <v>10</v>
+      </c>
+      <c r="E12" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4183696</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4183696</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="1" spans="1:12">
+      <c r="A16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="10">
+        <v>150089</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10">
+        <v>4</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="1" spans="1:12">
+      <c r="A17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="10">
+        <v>150089</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="1" spans="1:12">
+      <c r="A18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="10">
+        <v>150089</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="10">
+        <v>10</v>
+      </c>
+      <c r="E18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="10">
+        <v>3</v>
+      </c>
+      <c r="I18" s="10">
+        <v>16</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="1" spans="1:12">
+      <c r="A19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="10">
+        <v>150089</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="3">
+        <v>178</v>
+      </c>
+      <c r="I22" s="3">
+        <v>244621</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1806885</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="11">
+        <v>10</v>
+      </c>
+      <c r="E26" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="11">
+        <v>18</v>
+      </c>
+      <c r="I26" s="11">
+        <v>4876</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1806885</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="11">
+        <v>10</v>
+      </c>
+      <c r="E27" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1806885</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="11">
+        <v>10</v>
+      </c>
+      <c r="E28" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1806885</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="11">
+        <v>10</v>
+      </c>
+      <c r="E29" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1806885</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="11">
+        <v>10</v>
+      </c>
+      <c r="E30" s="11">
+        <v>100000</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="11">
+        <v>1806885</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="11">
+        <v>10</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1806885</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="11">
+        <v>10</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1806885</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="11">
+        <v>10</v>
+      </c>
+      <c r="E33" s="11">
+        <v>20000</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="11">
+        <v>28</v>
+      </c>
+      <c r="I33" s="11">
+        <v>67910</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13">
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="13:13">
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="13:13">
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="3">
+        <v>27</v>
+      </c>
+      <c r="I37" s="3">
+        <v>164</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="3">
+        <v>26765</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="3">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="3">
+        <v>26765</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="3">
+        <v>3</v>
+      </c>
+      <c r="I39" s="3">
+        <v>24</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="11">
+        <v>1806885</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="3">
+        <v>67</v>
+      </c>
+      <c r="I40" s="3">
+        <v>69589</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="3">
+        <v>338200</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="3">
+        <v>25</v>
+      </c>
+      <c r="I41" s="3">
+        <v>20269</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="3">
+        <v>812899</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3">
+        <v>42229</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="12:13">
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="3">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="3">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="3">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="3">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="3">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="3">
+        <v>4</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="3">
+        <v>4</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="3">
+        <v>5</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L51" s="7"/>
+      <c r="M51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L52" s="7"/>
+      <c r="M52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="3">
+        <v>4</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="12"/>
+      <c r="M54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="3">
+        <v>19</v>
+      </c>
+      <c r="I56" s="3">
+        <v>102</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L56" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="3">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="3">
+        <v>19</v>
+      </c>
+      <c r="I57" s="3">
+        <v>102</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L57" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="12">
+        <v>1806885</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="3">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="3">
+        <v>263</v>
+      </c>
+      <c r="I58" s="3">
+        <v>281771</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L58" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="12">
+        <v>1806885</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="3">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="3">
+        <v>306</v>
+      </c>
+      <c r="I59" s="3">
+        <v>372082</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="12">
+        <v>1806885</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="3">
+        <v>10</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="3">
+        <v>81</v>
+      </c>
+      <c r="I60" s="3">
+        <v>96716</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="12"/>
+      <c r="C61" s="3"/>
+      <c r="M61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="12"/>
+      <c r="C62" s="3"/>
+      <c r="M62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="12"/>
+      <c r="C63" s="3"/>
+      <c r="M63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="12"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="12"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C20:C21 C40:C62">
+  <mergeCells count="2">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A55:M55"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"经纬度,Web墨卡托"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 G3 F4 G4 F5:G5 F6 G6 F7 G7 F8:G8 F9 G9 F10:G10 F11:G11 F12 G12 F13:G13 F14:G14 F15:G15 F16:G16 F17:G17 F18:G18 F19:G19 F23:G23 F24:G24 F25:G25 F26:G26 G27 F28:G28 F29:G29 F30:G30 F31:G31 F32:G32 F33:G33 F37:G37 F38:G38 F39:G39 F40:G40 F41:G41 F42 G42 F46 G46 F47 G47 F48 G48 F49 G49 F50 G50 F51 G51 F52 G52 F53 G53 F54:G54 F56:G56 F57:G57 F60:G60 F43:F45 G43:G45 F21:G22 F34:G36 F58:G59 F61:G69">
+      <formula1>"欧式距离,Haversine "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C37 C38 C39 C40 C41 C42 C43 C34:C36 C67:C71">
       <formula1>"经纬度,墨卡托"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2 F3 G3 F4:G4 F5:G5 F6:G6 F7:G7 F8:G8 F9:G9 F10:G10 F11:G11 F12:G12 F13:G13 F14:G14 F15:G15 F16:G16 F17:G17 F26:G26 F27:G27 F28:G28 F29:G29 F30:G30 F31:G31 F32:G32 F33:G33 F34:G34 F35:G35 F36:G36 F37:G37 F38:G38 F39:G39 F18:G21 F22:G25 F40:G60">
-      <formula1>"欧式距离,Haversine "</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5 L6 L7 L8 L9 L10 L11 L12 L16 L17 L23 L24 L25 L26 L27 L32 L33 L37 L38 L39 L42 L51 L3:L4 L13:L14 L18:L19 L21:L22 L28:L31 L34:L36 L40:L41 L43:L45 L46:L47 L48:L49 L52:L54 L56:L58">
+      <formula1>"读入点则计算参数,调用incdbscan才计算参数,固定参数"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11 L12 L13 L14 L15 L22 L2:L10 L16:L21 L23:L39 L40:L49">
-      <formula1>"读入点则计算参数,调用incdbscan才计算参数,固定参数"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C45 C50 C51 C52 C53 C54 C56 C57 C58 C59 C60 C46:C49 C61:C66">
+      <formula1>"UTM51N墨卡托,经纬度,Web墨卡托"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="C3" listDataValidation="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="3" customWidth="1"/>
+    <col min="6" max="7" width="15.75" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="15" style="3" customWidth="1"/>
+    <col min="11" max="11" width="53.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" customHeight="1" spans="1:12">
+      <c r="A1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5">
+        <v>150089</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>62</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>236</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:12">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1806885</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+      <c r="I11" s="6">
+        <v>5908</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:12">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>150089</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:12">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>150089</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>884</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="3">
+        <v>20</v>
+      </c>
+      <c r="I24" s="3">
+        <v>414</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="3">
+        <v>27</v>
+      </c>
+      <c r="I25" s="3">
+        <v>164</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="3">
+        <v>26</v>
+      </c>
+      <c r="I26" s="3">
+        <v>164</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3">
+        <v>100</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3">
+        <v>500</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="3">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>100</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="3">
+        <v>150089</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C22:C23 C42:C64">
+      <formula1>"经纬度,墨卡托"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G3 F4 G4 F5:G5 F6:G6 F7:G7 F8:G8 F9:G9 F10:G10 F11:G11 F12:G12 F13:G13 F14:G14 F15:G15 F16:G16 F17:G17 F18:G18 F19:G19 F28:G28 F29:G29 F30:G30 F31:G31 F32:G32 F33:G33 F34:G34 F35:G35 F36:G36 F37:G37 F38:G38 F39:G39 F40:G40 F41:G41 F20:G23 F24:G27 F42:G62">
+      <formula1>"欧式距离,Haversine "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12 L13 L14 L15 L16 L17 L24 L3:L11 L18:L23 L25:L41 L42:L51">
+      <formula1>"读入点则计算参数,调用incdbscan才计算参数,固定参数"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>